--- a/data/5_results/unknow/result_unknow_1.xlsx
+++ b/data/5_results/unknow/result_unknow_1.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,241</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,179</t>
+          <t>0,318</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,206</t>
+          <t>0,412</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,159</t>
+          <t>0,969</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,229</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,828</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,185</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,135</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,156</t>
+          <t>0,294</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,956</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,207</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,179</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,136</t>
+          <t>0,915</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,150</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,214</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,895</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,053</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,937</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,691</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,025</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,027</t>
+          <t>0,118</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,696</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,057</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,051</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,797</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,150</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,156</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,136</t>
+          <t>0,947</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,139</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,128</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,950</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,108</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,901</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,945</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,088</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,025</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,027</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,892</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,075</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,079</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,872</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,056</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,051</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,053</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,051</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,784</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,699</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1709,22 +1709,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,964</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1893,22 +1893,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4396,22 +4396,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>0,128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,028</t>
+          <t>0,355</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,236</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,066</t>
+          <t>0,651</t>
         </is>
       </c>
     </row>
